--- a/biology/Origine et évolution du vivant/Lyfe_(astrobiologie)/Lyfe_(astrobiologie).xlsx
+++ b/biology/Origine et évolution du vivant/Lyfe_(astrobiologie)/Lyfe_(astrobiologie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 En exobiologie, le concept de lyfe (prononcé [lɔif], « loïf »), un néologisme dérivé de l'anglais life (« vie ») que l'on peut traduire par « vye », « le vyvant » (également des néologismes) ou « vie universelle », est un essai de définition de ce que pourrait être la vie en général, au-delà des définitions restrictives de la vie sur Terre.
@@ -513,9 +525,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le concept a été défini en 2020 par Stuart Bartlett, scientifique spécialiste de la complexité à Caltech, et Michael L. Wong, astrobiologiste de l'université de Washington[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le concept a été défini en 2020 par Stuart Bartlett, scientifique spécialiste de la complexité à Caltech, et Michael L. Wong, astrobiologiste de l'université de Washington.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Un système doté de lyfe aurait les caractéristiques suivantes, appelées les quatre piliers par les auteurs et inspirés de la thermodynamique[1],[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Un système doté de lyfe aurait les caractéristiques suivantes, appelées les quatre piliers par les auteurs et inspirés de la thermodynamique, :
 dissipation (capacité à exploiter et à convertir des sources d'énergie) ;
 autocatalyse (capacité à croître ou à se développer de manière exponentielle) ;
 homéostasie (capacité à limiter les changements internes lorsque les choses changent à l'extérieur) ;
